--- a/BGDD.xlsx
+++ b/BGDD.xlsx
@@ -1158,7 +1158,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="J13" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
